--- a/trunk/croc-o-deals-parent/doc/Croc-o-deals-buisness-plan-1.1.0.xlsx
+++ b/trunk/croc-o-deals-parent/doc/Croc-o-deals-buisness-plan-1.1.0.xlsx
@@ -523,45 +523,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,9 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -586,32 +569,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +577,48 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,49 +943,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="24"/>
+      <c r="H2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1000,25 +1000,25 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="38">
         <v>4.99</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="48">
         <v>9.99</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26">
+      <c r="I3" s="49"/>
+      <c r="J3" s="48">
         <v>4.99</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="38">
+      <c r="K3" s="49"/>
+      <c r="L3" s="33">
         <v>14.99</v>
       </c>
-      <c r="M3" s="39"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1033,21 +1033,21 @@
       <c r="D4" s="13">
         <v>29.99</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="48">
         <v>14.99</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26">
+      <c r="I4" s="49"/>
+      <c r="J4" s="48">
         <v>29.99</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1065,22 +1065,22 @@
       <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="48"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="29"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1098,22 +1098,22 @@
       <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="44"/>
+      <c r="L6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1131,61 +1131,61 @@
       <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="G8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>39.99</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="42">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31">
+      <c r="K9" s="29"/>
+      <c r="L9" s="42">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1194,18 +1194,18 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="42">
         <v>4.99</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="30"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1218,18 +1218,18 @@
       <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="42">
         <v>12.99</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31">
+      <c r="I11" s="42"/>
+      <c r="J11" s="42">
         <v>6.99</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="30"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1242,18 +1242,18 @@
       <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="42">
         <v>2.99</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="30" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31">
+      <c r="K12" s="29"/>
+      <c r="L12" s="42">
         <v>2.99</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1271,24 +1271,24 @@
       <c r="H14" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -1308,7 +1308,7 @@
         <f>C22+C23+C24+C25+C26+C27+C28+C29+C30+C31+C32+C33+C34+C35+C36+C37+C38</f>
         <v>8495.81</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1328,7 +1328,7 @@
         <f>12*E22</f>
         <v>101949.72</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -1511,14 +1511,14 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -1538,7 +1538,7 @@
         <f>C42+C43+C44+C45+C46+C47+C48+C49+C50+C51+C52+C53+C54+C55+C56+C57+C58</f>
         <v>1175.6300000000001</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1558,7 +1558,7 @@
         <f>12*E42</f>
         <v>14107.560000000001</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -1741,17 +1741,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="42"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -1771,7 +1771,7 @@
         <f>C62+C63+C64+C65+C66+C67+C68+C69+C70+C71+C72+C73+C74+C75+C76+C77+C78</f>
         <v>152572.04999999999</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1791,7 +1791,7 @@
         <f>12*E62</f>
         <v>1830864.5999999999</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1975,6 +1975,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="H8:M8"/>
@@ -1984,17 +2006,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A41:E41"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="H10:I10"/>
@@ -2002,17 +2013,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
